--- a/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1invii\1Clienti\fse\Accreditamento\publish\A1#111#PANTAREIINFORMATICASRLXX\PANTAREIINFORMATICASRL\MEDREP\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391D912-7FD9-423B-A4EB-FA106D8A1974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3B613-C532-4037-B73E-B1B1C0C2D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -1744,11 +1741,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2207,155 +2211,163 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8BC93844-D089-49D6-A3A7-6315FFFE777E}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -3799,10 +3811,10 @@
   <dimension ref="A1:W751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,31 +4884,31 @@
       <c r="H30" s="33"/>
       <c r="I30" s="39"/>
       <c r="J30" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="P30" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29" t="s">
+      <c r="R30" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="R30" s="29" t="s">
+      <c r="S30" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="S30" s="29"/>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
         <v>66</v>
@@ -4927,31 +4939,31 @@
       <c r="H31" s="33"/>
       <c r="I31" s="39"/>
       <c r="J31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="P31" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29" t="s">
+      <c r="R31" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="O31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="P31" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="R31" s="29" t="s">
+      <c r="S31" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="S31" s="29"/>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
         <v>66</v>
@@ -8836,7 +8848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
         <v>175</v>
       </c>
@@ -8873,7 +8885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
         <v>177</v>
       </c>
@@ -8910,7 +8922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
         <v>178</v>
       </c>
@@ -15188,7 +15200,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -15199,7 +15211,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M14:N14 P14:R14 J14:J20 M16:N20 P16:R20 M30:N180 M22:N22 P22:R22 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 P30:R180 J22:J28 J30:J180 J182:J183 J189</xm:sqref>
+          <xm:sqref>M14:N14 P14:R14 J14:J20 M16:N20 P16:R20 M30:N180 M22:N22 P22:R22 M24:N28 P24:R28 P10:R12 M10:N12 J10:J12 P30:R180 J22:J28 J30:J180 J182:J183 J189 S30:S31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -17462,6 +17474,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17719,28 +17752,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17757,29 +17794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1invii\1Clienti\fse\Accreditamento\publish\A1#111#PANTAREIINFORMATICASRLXX\PANTAREIINFORMATICASRL\MEDREP\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F3B613-C532-4037-B73E-B1B1C0C2D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F22CE1-BEFD-48E8-BAF5-D5F47AACCEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1710,28 +1710,28 @@
     <t>subject_application_version:1.0.0</t>
   </si>
   <si>
-    <t>2025-04-07T12:47:16Z</t>
-  </si>
-  <si>
-    <t>2025-04-07T12:47:15Z</t>
-  </si>
-  <si>
-    <t>df122cf44c2db9a7</t>
-  </si>
-  <si>
-    <t>823533e7544e8968</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.97168dd9fcab853269f3d5e804d618e3af75b3054e498771abda38d86dea65e9.22a768e7d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.5ea5dc6b5c15e25b601811899a73e94ff9c6a782a96fa97620730cd4cf11fc24.a8cb738bb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Mostra un messaggio di errore all'operatore riportando la risposta fornita dal gateway</t>
   </si>
   <si>
     <t>L'operazione viene eseguita manualmente dall'operatore</t>
+  </si>
+  <si>
+    <t>2025-05-07T15:21:37Z</t>
+  </si>
+  <si>
+    <t>54cea3b84f8331cd55cd5720d6398a83</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.5ea5dc6b5c15e25b601811899a73e94ff9c6a782a96fa97620730cd4cf11fc24.e42d7bc580^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-07T15:21:36Z</t>
+  </si>
+  <si>
+    <t>6cdf21bfd5c126cc108d8456ccf9efad</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.97168dd9fcab853269f3d5e804d618e3af75b3054e498771abda38d86dea65e9.8088b28496^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2357,12 +2357,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3810,11 +3804,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W751"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,26 +4882,26 @@
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
-      <c r="M30" s="57" t="s">
+      <c r="M30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="57" t="s">
+      <c r="N30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O30" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="P30" s="57" t="s">
+      <c r="O30" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="P30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Q30" s="57" t="s">
+      <c r="Q30" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="R30" s="57" t="s">
+      <c r="R30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="57" t="s">
-        <v>445</v>
+      <c r="S30" s="29" t="s">
+        <v>439</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
@@ -4943,26 +4937,26 @@
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
-      <c r="M31" s="58" t="s">
+      <c r="M31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="58" t="s">
+      <c r="N31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="P31" s="58" t="s">
+      <c r="O31" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="P31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="R31" s="58" t="s">
+      <c r="R31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S31" s="58" t="s">
-        <v>445</v>
+      <c r="S31" s="29" t="s">
+        <v>439</v>
       </c>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
@@ -10160,16 +10154,16 @@
         <v>285</v>
       </c>
       <c r="F168" s="33">
-        <v>45754</v>
+        <v>45784</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I168" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J168" s="29" t="s">
         <v>66</v>
@@ -10248,16 +10242,16 @@
         <v>399</v>
       </c>
       <c r="F170" s="33">
-        <v>45754</v>
+        <v>45784</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I170" s="39" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -17474,6 +17468,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17483,15 +17486,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17753,6 +17747,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -17765,14 +17767,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#PANTAREIINFORMATICASRLXX/PANTAREIINFORMATICASRL/MEDREP/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1invii\1Clienti\fse\Accreditamento\publish\A1#111#PANTAREIINFORMATICASRLXX\PANTAREIINFORMATICASRL\MEDREP\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1F0B27-174F-4D29-AE1F-B7DCB3D91B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90434120-5CC4-429F-A011-7060ACF7B215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -1720,25 +1723,25 @@
     <t>subject_application_version:1.0.0</t>
   </si>
   <si>
+    <t>2025-05-08T15:17:14Z</t>
+  </si>
+  <si>
+    <t>69b3a329b48793f3a23820b5bec6006a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.5ea5dc6b5c15e25b601811899a73e94ff9c6a782a96fa97620730cd4cf11fc24.8024c020eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f18ccea4843718cc2b1aa8922942bf2c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.97168dd9fcab853269f3d5e804d618e3af75b3054e498771abda38d86dea65e9.8f6c760303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>Mostra un messaggio di errore all'operatore riportando la risposta fornita dal gateway</t>
   </si>
   <si>
     <t>L'operazione viene eseguita manualmente dall'operatore</t>
-  </si>
-  <si>
-    <t>2025-05-08T15:17:14Z</t>
-  </si>
-  <si>
-    <t>69b3a329b48793f3a23820b5bec6006a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.5ea5dc6b5c15e25b601811899a73e94ff9c6a782a96fa97620730cd4cf11fc24.8024c020eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.97168dd9fcab853269f3d5e804d618e3af75b3054e498771abda38d86dea65e9.8f6c760303^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f18ccea4843718cc2b1aa8922942bf2c</t>
   </si>
 </sst>
 </file>
@@ -1748,18 +1751,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2218,168 +2214,155 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{086A2067-5249-4CC2-BF89-94E1B1333DF8}"/>
-    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{1619C124-AE1B-4FEF-8001-9D880A767C33}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -3822,11 +3805,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W755"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4284,7 +4267,7 @@
       <c r="J14" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="38" t="s">
         <v>239</v>
       </c>
       <c r="L14" s="38"/>
@@ -4322,10 +4305,10 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="38" t="s">
         <v>239</v>
       </c>
       <c r="L15" s="38"/>
@@ -4585,10 +4568,10 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="38" t="s">
         <v>239</v>
       </c>
       <c r="L22" s="38"/>
@@ -4626,10 +4609,10 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="57" t="s">
+      <c r="J23" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="38" t="s">
         <v>239</v>
       </c>
       <c r="L23" s="38"/>
@@ -4895,7 +4878,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K30" s="38"/>
@@ -4906,8 +4889,8 @@
       <c r="N30" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="57" t="s">
-        <v>441</v>
+      <c r="O30" s="38" t="s">
+        <v>446</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>64</v>
@@ -4918,8 +4901,8 @@
       <c r="R30" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S30" s="57" t="s">
-        <v>442</v>
+      <c r="S30" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
@@ -4950,31 +4933,31 @@
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="57" t="s">
+      <c r="M31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="57" t="s">
+      <c r="N31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="57" t="s">
-        <v>441</v>
-      </c>
-      <c r="P31" s="57" t="s">
+      <c r="O31" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="P31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q31" s="57" t="s">
+      <c r="Q31" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="R31" s="57" t="s">
+      <c r="R31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="57" t="s">
-        <v>442</v>
+      <c r="S31" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39" t="s">
@@ -5825,7 +5808,7 @@
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="42"/>
-      <c r="J54" s="57" t="s">
+      <c r="J54" s="38" t="s">
         <v>232</v>
       </c>
       <c r="K54" s="38" t="s">
@@ -5866,10 +5849,10 @@
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="57" t="s">
+      <c r="J55" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K55" s="57" t="s">
+      <c r="K55" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L55" s="38"/>
@@ -5907,10 +5890,10 @@
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="42"/>
-      <c r="J56" s="57" t="s">
+      <c r="J56" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="57" t="s">
+      <c r="K56" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L56" s="38"/>
@@ -5948,10 +5931,10 @@
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="42"/>
-      <c r="J57" s="57" t="s">
+      <c r="J57" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K57" s="57" t="s">
+      <c r="K57" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L57" s="38"/>
@@ -5989,10 +5972,10 @@
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="42"/>
-      <c r="J58" s="57" t="s">
+      <c r="J58" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K58" s="57" t="s">
+      <c r="K58" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L58" s="38"/>
@@ -6030,10 +6013,10 @@
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="42"/>
-      <c r="J59" s="57" t="s">
+      <c r="J59" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L59" s="38"/>
@@ -6071,10 +6054,10 @@
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="42"/>
-      <c r="J60" s="57" t="s">
+      <c r="J60" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K60" s="57" t="s">
+      <c r="K60" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L60" s="38"/>
@@ -6112,10 +6095,10 @@
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="42"/>
-      <c r="J61" s="57" t="s">
+      <c r="J61" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="57" t="s">
+      <c r="K61" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L61" s="38"/>
@@ -6153,10 +6136,10 @@
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="42"/>
-      <c r="J62" s="57" t="s">
+      <c r="J62" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K62" s="57" t="s">
+      <c r="K62" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L62" s="38"/>
@@ -6194,10 +6177,10 @@
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="42"/>
-      <c r="J63" s="57" t="s">
+      <c r="J63" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K63" s="57" t="s">
+      <c r="K63" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L63" s="38"/>
@@ -6235,10 +6218,10 @@
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="42"/>
-      <c r="J64" s="57" t="s">
+      <c r="J64" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K64" s="57" t="s">
+      <c r="K64" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L64" s="38"/>
@@ -6276,10 +6259,10 @@
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="42"/>
-      <c r="J65" s="57" t="s">
+      <c r="J65" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K65" s="57" t="s">
+      <c r="K65" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L65" s="38"/>
@@ -6317,10 +6300,10 @@
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="42"/>
-      <c r="J66" s="57" t="s">
+      <c r="J66" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K66" s="57" t="s">
+      <c r="K66" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L66" s="38"/>
@@ -6358,10 +6341,10 @@
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="42"/>
-      <c r="J67" s="57" t="s">
+      <c r="J67" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K67" s="57" t="s">
+      <c r="K67" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L67" s="38"/>
@@ -6399,10 +6382,10 @@
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="42"/>
-      <c r="J68" s="57" t="s">
+      <c r="J68" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K68" s="57" t="s">
+      <c r="K68" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L68" s="38"/>
@@ -6440,10 +6423,10 @@
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="42"/>
-      <c r="J69" s="57" t="s">
+      <c r="J69" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K69" s="57" t="s">
+      <c r="K69" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L69" s="38"/>
@@ -6481,10 +6464,10 @@
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="42"/>
-      <c r="J70" s="57" t="s">
+      <c r="J70" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K70" s="57" t="s">
+      <c r="K70" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L70" s="38"/>
@@ -8261,10 +8244,10 @@
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
       <c r="I118" s="42"/>
-      <c r="J118" s="57" t="s">
+      <c r="J118" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K118" s="57" t="s">
+      <c r="K118" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L118" s="38"/>
@@ -8302,10 +8285,10 @@
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
       <c r="I119" s="42"/>
-      <c r="J119" s="57" t="s">
+      <c r="J119" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K119" s="57" t="s">
+      <c r="K119" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L119" s="38"/>
@@ -8343,10 +8326,10 @@
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
       <c r="I120" s="42"/>
-      <c r="J120" s="57" t="s">
+      <c r="J120" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K120" s="57" t="s">
+      <c r="K120" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L120" s="38"/>
@@ -8384,10 +8367,10 @@
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
       <c r="I121" s="42"/>
-      <c r="J121" s="57" t="s">
+      <c r="J121" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K121" s="57" t="s">
+      <c r="K121" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L121" s="38"/>
@@ -8425,10 +8408,10 @@
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
       <c r="I122" s="42"/>
-      <c r="J122" s="57" t="s">
+      <c r="J122" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K122" s="57" t="s">
+      <c r="K122" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L122" s="38"/>
@@ -8466,10 +8449,10 @@
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
       <c r="I123" s="42"/>
-      <c r="J123" s="57" t="s">
+      <c r="J123" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K123" s="57" t="s">
+      <c r="K123" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L123" s="38"/>
@@ -8507,10 +8490,10 @@
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
       <c r="I124" s="42"/>
-      <c r="J124" s="57" t="s">
+      <c r="J124" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K124" s="57" t="s">
+      <c r="K124" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L124" s="38"/>
@@ -8548,10 +8531,10 @@
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
       <c r="I125" s="42"/>
-      <c r="J125" s="57" t="s">
+      <c r="J125" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K125" s="57" t="s">
+      <c r="K125" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L125" s="38"/>
@@ -8589,10 +8572,10 @@
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
       <c r="I126" s="42"/>
-      <c r="J126" s="57" t="s">
+      <c r="J126" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K126" s="57" t="s">
+      <c r="K126" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L126" s="38"/>
@@ -8630,10 +8613,10 @@
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="42"/>
-      <c r="J127" s="57" t="s">
+      <c r="J127" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K127" s="57" t="s">
+      <c r="K127" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L127" s="38"/>
@@ -8671,10 +8654,10 @@
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
       <c r="I128" s="42"/>
-      <c r="J128" s="57" t="s">
+      <c r="J128" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="57" t="s">
+      <c r="K128" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L128" s="38"/>
@@ -8712,10 +8695,10 @@
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
       <c r="I129" s="42"/>
-      <c r="J129" s="57" t="s">
+      <c r="J129" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K129" s="57" t="s">
+      <c r="K129" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L129" s="38"/>
@@ -8753,10 +8736,10 @@
       <c r="G130" s="37"/>
       <c r="H130" s="37"/>
       <c r="I130" s="42"/>
-      <c r="J130" s="57" t="s">
+      <c r="J130" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K130" s="57" t="s">
+      <c r="K130" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L130" s="38"/>
@@ -8794,10 +8777,10 @@
       <c r="G131" s="37"/>
       <c r="H131" s="37"/>
       <c r="I131" s="42"/>
-      <c r="J131" s="57" t="s">
+      <c r="J131" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K131" s="57" t="s">
+      <c r="K131" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L131" s="38"/>
@@ -8835,10 +8818,10 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
-      <c r="J132" s="57" t="s">
+      <c r="J132" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K132" s="57" t="s">
+      <c r="K132" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L132" s="38"/>
@@ -8876,10 +8859,10 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
-      <c r="J133" s="57" t="s">
+      <c r="J133" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K133" s="57" t="s">
+      <c r="K133" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L133" s="38"/>
@@ -10208,19 +10191,19 @@
       <c r="E169" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="F169" s="58">
+      <c r="F169" s="37">
         <v>45785</v>
       </c>
-      <c r="G169" s="58" t="s">
-        <v>443</v>
-      </c>
-      <c r="H169" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="I169" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="J169" s="57" t="s">
+      <c r="G169" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="H169" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="I169" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="J169" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K169" s="38"/>
@@ -10259,7 +10242,7 @@
       <c r="G170" s="37"/>
       <c r="H170" s="37"/>
       <c r="I170" s="42"/>
-      <c r="J170" s="57" t="s">
+      <c r="J170" s="38" t="s">
         <v>232</v>
       </c>
       <c r="K170" s="38" t="s">
@@ -10670,7 +10653,7 @@
       <c r="G181" s="35"/>
       <c r="H181" s="35"/>
       <c r="I181" s="35"/>
-      <c r="J181" s="57" t="s">
+      <c r="J181" s="38" t="s">
         <v>232</v>
       </c>
       <c r="K181" s="38" t="s">
@@ -10711,10 +10694,10 @@
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
       <c r="I182" s="35"/>
-      <c r="J182" s="57" t="s">
+      <c r="J182" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K182" s="57" t="s">
+      <c r="K182" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L182" s="35"/>
@@ -10937,10 +10920,10 @@
       <c r="G188" s="35"/>
       <c r="H188" s="35"/>
       <c r="I188" s="35"/>
-      <c r="J188" s="57" t="s">
+      <c r="J188" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K188" s="57" t="s">
+      <c r="K188" s="38" t="s">
         <v>242</v>
       </c>
       <c r="L188" s="35"/>
@@ -11048,19 +11031,19 @@
       <c r="E191" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="F191" s="58">
+      <c r="F191" s="37">
         <v>45785</v>
       </c>
-      <c r="G191" s="58" t="s">
+      <c r="G191" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="I191" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="H191" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="I191" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="J191" s="57" t="s">
+      <c r="J191" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K191" s="38"/>
@@ -11099,7 +11082,7 @@
       <c r="G192" s="37"/>
       <c r="H192" s="37"/>
       <c r="I192" s="42"/>
-      <c r="J192" s="57" t="s">
+      <c r="J192" s="38" t="s">
         <v>232</v>
       </c>
       <c r="K192" s="38" t="s">
@@ -15208,13 +15191,13 @@
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -15225,7 +15208,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N192 P10:R192 J10:J168 J170:J190 J192</xm:sqref>
+          <xm:sqref>M10:N192 J10:J192 P10:R192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -15237,7 +15220,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K13 K16:K21 K24:K192</xm:sqref>
+          <xm:sqref>K10:K192</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17488,6 +17471,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17499,7 +17491,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17757,16 +17749,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17783,7 +17774,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17800,12 +17791,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>